--- a/builds/species_lists/unique_identified_species_waterberg2024.xlsx
+++ b/builds/species_lists/unique_identified_species_waterberg2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t xml:space="preserve">species</t>
   </si>
@@ -263,9 +263,6 @@
     <t xml:space="preserve">Cordylostigma virgatum</t>
   </si>
   <si>
-    <t xml:space="preserve">Corky bark</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crabbea angustifolia</t>
   </si>
   <si>
@@ -777,9 +774,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nidorella resedifolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obvious veins and hairs under</t>
   </si>
   <si>
     <t xml:space="preserve">Ochna pulchra</t>
@@ -3933,16 +3927,6 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>449</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
